--- a/dsw02sydcny.xlsx
+++ b/dsw02sydcny.xlsx
@@ -14,88 +14,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>show ver | in  'kickstart:|system:'</t>
-  </si>
-  <si>
-    <t>show vrf | ex VRF | ex Up</t>
-  </si>
-  <si>
-    <t>show license usage | ex * | ex --- | ex Feat | ex Coun</t>
-  </si>
-  <si>
-    <t>show module | ex Sw | ex MAC | ex -- | ex to | ex Ports | ex ok | ex active | ex standby | sed '/^$/d'</t>
-  </si>
-  <si>
-    <t>show diagnostic result module all | inc '&gt; F'</t>
-  </si>
-  <si>
-    <t>show system internal mts buffer summa | ex node |  cut -f 3-0</t>
-  </si>
-  <si>
-    <t>show int desc | ex -- |  egrep 'Eth|Po' | ex Port | cut -d ' ' -f 1 | sed 's/\s*/show int br | egrep -w  /' | vsh | in down</t>
-  </si>
-  <si>
-    <t>show port-channel summary | in SD | cut -d ' ' -f 1 | sed 's/\s*/show int port-channel / ' | vsh | in down | ex watch</t>
-  </si>
-  <si>
-    <t>show vpc br | in status | in fail</t>
-  </si>
-  <si>
-    <t>show system resources | in idle | head lines 1</t>
-  </si>
-  <si>
-    <t>show fex | ex Online | ex FEX | ex Number | ex ----------------</t>
-  </si>
-  <si>
-    <t>show ip bgp summary vrf all | inc '^([0-9]{1,3})\.([0-9]{1,3})\.([0-9]{1,3})\.([0-9]{1,3}).*'</t>
-  </si>
-  <si>
-    <t>show fabricpath isis interface br | in Up | ex Interface</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+  <si>
+    <t>dsw02sydcny</t>
   </si>
   <si>
     <t>System 7.3(2)N1(1) Kickstart: 7.3(2)N1(1)</t>
   </si>
   <si>
-    <t>Eth1/2
-Eth1/3
-Eth1/4
-Eth2/2
-Eth2/3
-Eth2/4
-Eth3/2
-Eth3/3
-Eth3/4
-Eth4/2
-Eth4/3
-Eth4/4
-Eth5/3
-Eth5/4
-Eth5/5
-Eth5/6
-Eth6/3
-Eth6/4
-Eth6/5
-Eth6/6
-Po1202
-Po1203
-Po1204
-Po1205
-Po1206
-Po1221
-Po1222
-Po1223
-Po2000
-Po2001
-Eth101/1/2
-Eth101/1/3</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Issues:
+</t>
+  </si>
+  <si>
+    <t>Pass
+Pass
+Pass
+Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eth1/2        1       eth  fabric down    SFP not inserted            40G(D) 1202
+Eth1/3        1       eth  fabric down    SFP not inserted            40G(D) 1203
+Eth1/4        1       eth  fabric down    SFP not inserted            40G(D) 1204
+Eth2/2        1       eth  fabric down    SFP not inserted            40G(D) 1202
+Eth2/3        1       eth  fabric down    SFP not inserted            40G(D) 1203
+Eth2/4        1       eth  fabric down    SFP not inserted            40G(D) 1204
+Eth3/2        1       eth  fabric down    SFP not inserted            40G(D) 1202
+Eth3/3        1       eth  fabric down    SFP not inserted            40G(D) 1203
+Eth3/4        1       eth  fabric down    SFP not inserted            40G(D) 1204
+Eth4/2        1       eth  fabric down    SFP not inserted            40G(D) 1202
+Eth4/3        1       eth  fabric down    SFP not inserted            40G(D) 1203
+Eth4/4        1       eth  fabric down    SFP not inserted            40G(D) 1204
+Eth5/3        1       eth  fabric down    SFP not inserted            10G(D) 1221
+Eth5/4        1       eth  fabric down    SFP not inserted            10G(D) 1221
+Eth5/5        1       eth  fabric down    SFP not inserted            10G(D) 1222
+Eth5/6        1       eth  fabric down    SFP not inserted            10G(D) 1222
+Eth6/3        1       eth  fabric down    SFP not inserted            10G(D) 1221
+Eth6/4        1       eth  fabric down    SFP not inserted            10G(D) 1221
+Eth6/5        1       eth  fabric down    SFP not inserted            10G(D) 1222
+Eth6/6        1       eth  fabric down    SFP not inserted            10G(D) 1222
+Po1202       1       eth  fabric down    No operational members      auto(D)  none
+Po1203       1       eth  fabric down    No operational members      auto(D)  none
+Po1204       1       eth  fabric down    No operational members      auto(D)  none
+Po1205       1       eth  fabric down    No operational members      auto(I)  none
+Po1206       1       eth  fabric down    No operational members      auto(I)  none
+Po1221       1       eth  fabric down    No operational members      auto(D)  none
+Po1222       1       eth  fabric down    No operational members      auto(D)  none
+Po1223       1       eth  f-path down    No operational members      auto(I)  none
+Po2000       802     eth  access down    No operational members      auto(D)  lacp
+Po2001       802     eth  access down    No operational members      auto(D)  lacp
+Eth101/1/2     802     eth  access down    Link not connected         10G(D) 2000
+Eth101/1/3     802     eth  access down    Link not connected         10G(D) 2001
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port-channel1202 is down (No operational members)
+port-channel1203 is down (No operational members)
+port-channel1204 is down (No operational members)
+port-channel1205 is down (No operational members)
+port-channel1206 is down (No operational members)
+port-channel1221 is down (No operational members)
+port-channel1222 is down (No operational members)
+port-channel1223 is down (No operational members)
+port-channel2000 is down (No operational members)
+port-channel2001 is down (No operational members)
+</t>
+  </si>
+  <si>
+    <t>NOT ASSIGN</t>
   </si>
 </sst>
 </file>
@@ -163,15 +151,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF19B2E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -461,97 +441,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dsw02sydcny.xlsx
+++ b/dsw02sydcny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>dsw02sydcny</t>
   </si>
@@ -27,12 +27,6 @@
   <si>
     <t xml:space="preserve">License Issues:
 </t>
-  </si>
-  <si>
-    <t>Pass
-Pass
-Pass
-Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Eth1/2        1       eth  fabric down    SFP not inserted            40G(D) 1202
@@ -479,17 +473,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -509,7 +503,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
